--- a/Covidbingo.xlsx
+++ b/Covidbingo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>1939 Germany</t>
   </si>
@@ -40,37 +40,19 @@
     <t>2021 China</t>
   </si>
   <si>
-    <t>2021 El Salvador</t>
-  </si>
-  <si>
-    <t>2021 Finland</t>
-  </si>
-  <si>
-    <t>2021 France</t>
-  </si>
-  <si>
-    <t>2021 Iceland</t>
-  </si>
-  <si>
-    <t>2021 Italy</t>
-  </si>
-  <si>
-    <t>2021 Japan</t>
-  </si>
-  <si>
-    <t>2021 Netherlands</t>
-  </si>
-  <si>
-    <t>2021 Norway</t>
-  </si>
-  <si>
-    <t>2021 Spain</t>
-  </si>
-  <si>
-    <t>2021 USA</t>
-  </si>
-  <si>
-    <t>Experiments on humans</t>
+    <t>2021 Hungary</t>
+  </si>
+  <si>
+    <t>2021 South Korea</t>
+  </si>
+  <si>
+    <t>2021 Czech republic</t>
+  </si>
+  <si>
+    <t>2021 New Zealand</t>
+  </si>
+  <si>
+    <t>Experimental meds on humans</t>
   </si>
   <si>
     <t>Media censorship</t>
@@ -82,6 +64,9 @@
     <t>Mandatory papers</t>
   </si>
   <si>
+    <t>Mandatory cloth wearing</t>
+  </si>
+  <si>
     <t>Public places restrictions</t>
   </si>
   <si>
@@ -109,7 +94,7 @@
     <t>Train transports</t>
   </si>
   <si>
-    <t>Compulsory experiments on humans</t>
+    <t>Compulsory experimental meds on humans</t>
   </si>
   <si>
     <t>Persecution</t>
@@ -184,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -206,7 +191,6 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -488,28 +472,17 @@
       <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -520,12 +493,14 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -535,12 +510,14 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -551,12 +528,14 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="6"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -567,42 +546,47 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
+      <c r="A6" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -610,28 +594,31 @@
       <c r="E8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
+      <c r="A9" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="6"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -641,89 +628,106 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="6"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="6"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>32</v>
+      <c r="A15" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
+      <c r="A16" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18">
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Covidbingo.xlsx
+++ b/Covidbingo.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmyleonardsson/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05023127-3507-FC44-B5DE-E79B2853BD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Blad1" sheetId="1" r:id="rId4"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>1939 Germany</t>
   </si>
@@ -101,32 +110,39 @@
   </si>
   <si>
     <t>Final Solution</t>
+  </si>
+  <si>
+    <t>2021 United Kingdom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -136,7 +152,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -164,47 +180,52 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="90"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -394,44 +415,49 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.14"/>
-    <col customWidth="1" min="2" max="2" width="7.71"/>
-    <col customWidth="1" min="3" max="3" width="7.43"/>
-    <col customWidth="1" min="4" max="4" width="7.14"/>
-    <col customWidth="1" min="5" max="5" width="7.29"/>
-    <col customWidth="1" min="6" max="6" width="6.86"/>
-    <col customWidth="1" min="7" max="7" width="7.29"/>
-    <col customWidth="1" min="8" max="8" width="8.29"/>
-    <col customWidth="1" min="9" max="9" width="9.0"/>
-    <col customWidth="1" min="10" max="10" width="10.0"/>
-    <col customWidth="1" min="11" max="11" width="9.57"/>
-    <col customWidth="1" min="12" max="12" width="9.71"/>
-    <col customWidth="1" min="13" max="13" width="10.0"/>
-    <col customWidth="1" min="14" max="14" width="8.86"/>
-    <col customWidth="1" min="15" max="16" width="9.0"/>
-    <col customWidth="1" min="17" max="17" width="9.29"/>
-    <col customWidth="1" min="18" max="18" width="8.57"/>
-    <col customWidth="1" min="19" max="19" width="9.43"/>
-    <col customWidth="1" min="20" max="20" width="7.86"/>
-    <col customWidth="1" min="21" max="21" width="8.57"/>
-    <col customWidth="1" min="22" max="22" width="7.86"/>
-    <col customWidth="1" min="23" max="23" width="8.43"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
+    <col min="15" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="8.5" customWidth="1"/>
+    <col min="19" max="19" width="9.5" customWidth="1"/>
+    <col min="20" max="20" width="7.83203125" customWidth="1"/>
+    <col min="21" max="21" width="8.5" customWidth="1"/>
+    <col min="22" max="22" width="7.83203125" customWidth="1"/>
+    <col min="23" max="23" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="93.0" customHeight="1">
+    <row r="1" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -472,7 +498,9 @@
       <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -480,7 +508,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -497,8 +525,9 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-    </row>
-    <row r="3">
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -514,8 +543,9 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-    </row>
-    <row r="4">
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -532,8 +562,9 @@
       <c r="L4" s="6"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5">
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -550,8 +581,9 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6">
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -565,8 +597,9 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7">
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -583,8 +616,9 @@
       <c r="L7" s="6"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8">
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -599,8 +633,9 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9">
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -615,8 +650,9 @@
       <c r="L9" s="6"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10">
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -632,8 +668,9 @@
       <c r="L10" s="6"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11">
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -649,8 +686,9 @@
       <c r="L11" s="6"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12">
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -664,8 +702,9 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13">
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -679,8 +718,9 @@
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14">
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -694,7 +734,7 @@
       <c r="L14" s="6"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -707,7 +747,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -715,21 +755,22 @@
       <c r="H16" s="8"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17">
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>